--- a/Team-Data/2012-13/1-28-2012-13.xlsx
+++ b/Team-Data/2012-13/1-28-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -804,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -947,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>28</v>
@@ -965,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
@@ -992,13 +1059,13 @@
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
         <v>14</v>
       </c>
       <c r="BB3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.591</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,70 +1115,70 @@
         <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L4" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O4" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
         <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1150,19 +1217,19 @@
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1177,13 +1244,13 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
         <v>17</v>
       </c>
       <c r="BC4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1279,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.256</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J5" t="n">
         <v>81.8</v>
@@ -1239,19 +1306,19 @@
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P5" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R5" t="n">
         <v>11.6</v>
@@ -1263,7 +1330,7 @@
         <v>41.1</v>
       </c>
       <c r="U5" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V5" t="n">
         <v>14.2</v>
@@ -1275,28 +1342,28 @@
         <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Z5" t="n">
         <v>19.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>-8</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
@@ -1311,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1335,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT5" t="n">
         <v>22</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1359,10 +1426,10 @@
         <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.614</v>
+        <v>0.605</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1418,43 +1485,43 @@
         <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.779</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U6" t="n">
         <v>22.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>5.6</v>
@@ -1469,13 +1536,13 @@
         <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
@@ -1502,19 +1569,19 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
@@ -1523,31 +1590,31 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
         <v>25</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1863,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
@@ -1881,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1908,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>22</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.609</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.467</v>
@@ -1967,28 +2034,28 @@
         <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P9" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="S9" t="n">
         <v>31.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="U9" t="n">
         <v>23.7</v>
@@ -1997,10 +2064,10 @@
         <v>15.4</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
         <v>6.8</v>
@@ -2009,19 +2076,19 @@
         <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC9" t="n">
         <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
         <v>9</v>
@@ -2033,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2042,13 +2109,13 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2084,10 +2151,10 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2224,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -2242,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
@@ -2263,16 +2330,16 @@
         <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -2304,40 +2371,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.614</v>
+        <v>0.605</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
         <v>0.388</v>
       </c>
       <c r="O11" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P11" t="n">
         <v>21.4</v>
@@ -2352,7 +2419,7 @@
         <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
         <v>22.7</v>
@@ -2364,28 +2431,28 @@
         <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y11" t="n">
         <v>5.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2397,13 +2464,13 @@
         <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2433,10 +2500,10 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2448,13 +2515,13 @@
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.532</v>
+        <v>0.522</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L12" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R12" t="n">
         <v>10.8</v>
@@ -2537,13 +2604,13 @@
         <v>43</v>
       </c>
       <c r="U12" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
@@ -2558,16 +2625,16 @@
         <v>19.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.9</v>
+        <v>104.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -2579,10 +2646,10 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>10</v>
@@ -2594,16 +2661,16 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>20</v>
@@ -2612,16 +2679,16 @@
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>27</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>17</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -2668,52 +2735,52 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.578</v>
+        <v>0.591</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R13" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T13" t="n">
         <v>45.6</v>
@@ -2722,7 +2789,7 @@
         <v>19.8</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
@@ -2734,31 +2801,31 @@
         <v>5.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2767,13 +2834,13 @@
         <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
@@ -2809,19 +2876,19 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
@@ -2973,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3125,7 +3192,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>20</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3167,7 +3234,7 @@
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0.659</v>
+        <v>0.651</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M16" t="n">
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.338</v>
       </c>
       <c r="O16" t="n">
         <v>16.3</v>
@@ -3256,43 +3323,43 @@
         <v>0.79</v>
       </c>
       <c r="R16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="S16" t="n">
         <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>6</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3352,19 +3419,19 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3510,10 +3577,10 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -3680,13 +3747,13 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3713,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3725,13 +3792,13 @@
         <v>8</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>13</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3914,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3874,10 +3941,10 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3892,7 +3959,7 @@
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
@@ -3913,7 +3980,7 @@
         <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -4059,13 +4126,13 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>19</v>
@@ -4092,10 +4159,10 @@
         <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>4.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4217,13 +4284,13 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,7 +4475,7 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
         <v>13</v>
@@ -4453,7 +4520,7 @@
         <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>0.318</v>
+        <v>0.326</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="J23" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="O23" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="Q23" t="n">
         <v>0.785</v>
@@ -4533,10 +4600,10 @@
         <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
         <v>23.3</v>
@@ -4545,34 +4612,34 @@
         <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
         <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>27</v>
@@ -4581,22 +4648,22 @@
         <v>20</v>
       </c>
       <c r="AI23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK23" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
       </c>
       <c r="AM23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4632,16 +4699,16 @@
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.446</v>
+        <v>0.443</v>
       </c>
       <c r="L24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="P24" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R24" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T24" t="n">
-        <v>40.8</v>
+        <v>41.1</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V24" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W24" t="n">
         <v>7.3</v>
@@ -4736,49 +4803,49 @@
         <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC24" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,22 +4857,22 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4814,16 +4881,16 @@
         <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-4.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4951,13 +5018,13 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN25" t="n">
         <v>29</v>
@@ -4981,10 +5048,10 @@
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>16</v>
@@ -4993,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5142,13 +5209,13 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>9</v>
@@ -5157,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
         <v>18</v>
@@ -5169,7 +5236,7 @@
         <v>20</v>
       </c>
       <c r="AW26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>22</v>
@@ -5178,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.37</v>
+        <v>0.356</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5240,13 +5307,13 @@
         <v>0.44</v>
       </c>
       <c r="L27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O27" t="n">
         <v>17</v>
@@ -5255,31 +5322,31 @@
         <v>22.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S27" t="n">
         <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
         <v>21.3</v>
@@ -5291,25 +5358,25 @@
         <v>96.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.3</v>
+        <v>-6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>7</v>
@@ -5318,22 +5385,22 @@
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5348,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="n">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" t="n">
-        <v>0.356</v>
+        <v>0.364</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.445</v>
@@ -5610,7 +5677,7 @@
         <v>21.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O29" t="n">
         <v>17</v>
@@ -5619,19 +5686,19 @@
         <v>22</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>10.7</v>
       </c>
       <c r="S29" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T29" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V29" t="n">
         <v>12.8</v>
@@ -5646,40 +5713,40 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>19.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5688,10 +5755,10 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5700,7 +5767,7 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>28</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5721,19 +5788,19 @@
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
         <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -5762,64 +5829,64 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>0.533</v>
+        <v>0.545</v>
       </c>
       <c r="H30" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
         <v>82</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M30" t="n">
         <v>17.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P30" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
         <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
         <v>42</v>
       </c>
       <c r="U30" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X30" t="n">
         <v>6.3</v>
@@ -5834,16 +5901,16 @@
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5852,10 +5919,10 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5876,28 +5943,28 @@
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5909,13 +5976,13 @@
         <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>0.256</v>
+        <v>0.262</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
@@ -5962,34 +6029,34 @@
         <v>35</v>
       </c>
       <c r="J31" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O31" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P31" t="n">
         <v>20.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
         <v>43.7</v>
@@ -5998,16 +6065,16 @@
         <v>21.5</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
         <v>20.7</v>
@@ -6019,7 +6086,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4.8</v>
+        <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
         <v>26</v>
@@ -6040,19 +6107,19 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6061,13 +6128,13 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT31" t="n">
         <v>8</v>
@@ -6076,13 +6143,13 @@
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX31" t="n">
         <v>19</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>21</v>
       </c>
       <c r="AY31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-28-2012-13</t>
+          <t>2013-01-28</t>
         </is>
       </c>
     </row>
